--- a/2022/cvscc-20220924.xlsx
+++ b/2022/cvscc-20220924.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrye/personal/mac/results/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6758F7E-7E70-6347-A5D3-02ECA13169D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75BAADA-7D17-CE4B-8D08-6AA27C3127F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1220" yWindow="500" windowWidth="10000" windowHeight="20480" xr2:uid="{15C3AB5E-E1CD-9F4A-9C99-B5E6C9D2B530}"/>
   </bookViews>
@@ -144,9 +144,6 @@
     <t>Jordan Krista</t>
   </si>
   <si>
-    <t>XSB</t>
-  </si>
-  <si>
     <t>David Parsons</t>
   </si>
   <si>
@@ -169,6 +166,9 @@
   </si>
   <si>
     <t>Z</t>
+  </si>
+  <si>
+    <t>XB</t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B22" sqref="B22:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -578,7 +578,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
         <v>39</v>
-      </c>
-      <c r="C22" t="s">
-        <v>40</v>
       </c>
       <c r="D22">
         <v>50.93</v>
@@ -804,10 +804,10 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23">
         <v>53.482999999999997</v>
@@ -840,7 +840,7 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26">
         <v>51.71</v>
@@ -851,7 +851,7 @@
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27">
         <v>47.155999999999999</v>
@@ -862,7 +862,7 @@
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28">
         <v>47.280999999999999</v>
@@ -873,7 +873,7 @@
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29">
         <v>52.249000000000002</v>
@@ -884,7 +884,7 @@
         <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30">
         <v>50.274000000000001</v>
